--- a/upload/cashback.xlsx
+++ b/upload/cashback.xlsx
@@ -23,7 +23,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -49,10 +49,15 @@
       <name val="&quot;docs-Source Code Pro&quot;"/>
     </font>
     <font>
-      <b/>
-      <sz val="9.0"/>
-      <color rgb="FF3D4F58"/>
+      <sz val="9.0"/>
+      <color rgb="FF12824D"/>
       <name val="&quot;Source Code Pro&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.0"/>
+      <color rgb="FF016EE9"/>
+      <name val="Source Code Pro"/>
     </font>
     <font>
       <b/>
@@ -87,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -104,9 +109,12 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -342,10 +350,15 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5">
+        <v>868873.0</v>
+      </c>
+      <c r="B3" s="6">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
